--- a/biology/Botanique/Tinadendron_noumeanum/Tinadendron_noumeanum.xlsx
+++ b/biology/Botanique/Tinadendron_noumeanum/Tinadendron_noumeanum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tinadendron noumeanum est une espèce de plantes de la famille des rubiacées, endémique à la Nouvelle-Calédonie. 
 </t>
@@ -513,15 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-L'espèce se présente comme un arbre ou un arbuste[1].
-Feuilles
-Les feuilles sont pétiolées, insérées les unes en face des autres à une même hauteur, avec des stipules assez coriaces[1]. Des domaties sont présentes à l'aisselle des nervures.
-Fleurs
-Les inflorescences donnent des fleurs sessiles. Les mâles et les femelles ont une apparence similaire[1].
-Fruits
-Les fruits mesurent quelques millimètres. Ellipsoïdes, ils ont l'aspect d'une drupe verte qui devient progressivement brune[1].
-Les graines, cylindriques, sont brun clair. Leur forme est allongée, atténuée aux extrémités[1].
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se présente comme un arbre ou un arbuste.
 </t>
         </is>
       </c>
@@ -547,12 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Reproduction</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'espèce est dioïque[1].
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles sont pétiolées, insérées les unes en face des autres à une même hauteur, avec des stipules assez coriaces. Des domaties sont présentes à l'aisselle des nervures.
 </t>
         </is>
       </c>
@@ -578,13 +594,123 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les inflorescences donnent des fleurs sessiles. Les mâles et les femelles ont une apparence similaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tinadendron_noumeanum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tinadendron_noumeanum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits mesurent quelques millimètres. Ellipsoïdes, ils ont l'aspect d'une drupe verte qui devient progressivement brune.
+Les graines, cylindriques, sont brun clair. Leur forme est allongée, atténuée aux extrémités.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tinadendron_noumeanum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tinadendron_noumeanum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est dioïque.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tinadendron_noumeanum</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tinadendron_noumeanum</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est endémique à la Nouvelle-Calédonie. Les individus ne sont présents que dans la zone nouméenne, en particulier dans le quartier de Tina[1].
-L'espèce ayant souffert de l'intense urbanisation de Nouméa, elle est à ce jour sur la liste rouge de l'UICN en tant qu'espèce en danger critique d'extinction. En 2007, il ne restait que 20 individus matures à l'état naturel[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est endémique à la Nouvelle-Calédonie. Les individus ne sont présents que dans la zone nouméenne, en particulier dans le quartier de Tina.
+L'espèce ayant souffert de l'intense urbanisation de Nouméa, elle est à ce jour sur la liste rouge de l'UICN en tant qu'espèce en danger critique d'extinction. En 2007, il ne restait que 20 individus matures à l'état naturel.
 </t>
         </is>
       </c>
